--- a/mainapp/import/catalog.xlsx
+++ b/mainapp/import/catalog.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="144">
   <si>
     <t>category</t>
   </si>
@@ -144,9 +144,6 @@
     <t>диван серый обеденный</t>
   </si>
   <si>
-    <t>стул краный - опасный</t>
-  </si>
-  <si>
     <t>часы</t>
   </si>
   <si>
@@ -244,6 +241,213 @@
   </si>
   <si>
     <t>в цеху такие лампы были…</t>
+  </si>
+  <si>
+    <t>product-16.jpg</t>
+  </si>
+  <si>
+    <t>product-17.jpg</t>
+  </si>
+  <si>
+    <t>product-18.jpg</t>
+  </si>
+  <si>
+    <t>product-19.jpg</t>
+  </si>
+  <si>
+    <t>product-20.jpg</t>
+  </si>
+  <si>
+    <t>product-21.jpg</t>
+  </si>
+  <si>
+    <t>product-22.jpg</t>
+  </si>
+  <si>
+    <t>product-23.jpg</t>
+  </si>
+  <si>
+    <t>product-24.jpg</t>
+  </si>
+  <si>
+    <t>product-25.jpg</t>
+  </si>
+  <si>
+    <t>диван синий</t>
+  </si>
+  <si>
+    <t>диван красный</t>
+  </si>
+  <si>
+    <t>красный велюровый диван</t>
+  </si>
+  <si>
+    <t>коричневый диван</t>
+  </si>
+  <si>
+    <t>кожанный угловой диван</t>
+  </si>
+  <si>
+    <t>диван из зеленой кожи</t>
+  </si>
+  <si>
+    <t>пестренькая тахиа</t>
+  </si>
+  <si>
+    <t>белый угловой диван</t>
+  </si>
+  <si>
+    <t>белый кожаный диванчик</t>
+  </si>
+  <si>
+    <t>диван цвета детской неожиданности</t>
+  </si>
+  <si>
+    <t>диван синий более подробно...</t>
+  </si>
+  <si>
+    <t>диван красный более подробно…</t>
+  </si>
+  <si>
+    <t>красный велюровый диван более подробно…</t>
+  </si>
+  <si>
+    <t>коричневый диван более подробно…</t>
+  </si>
+  <si>
+    <t>кожанный угловой диван более подробно…</t>
+  </si>
+  <si>
+    <t>диван из зеленой кожи более подробно…</t>
+  </si>
+  <si>
+    <t>пестренькая тахиа более подробно…</t>
+  </si>
+  <si>
+    <t>белый угловой диван более подробно…</t>
+  </si>
+  <si>
+    <t>белый кожаный диванчик более подробно…</t>
+  </si>
+  <si>
+    <t>диван цвета детской неожиданности более подробно…</t>
+  </si>
+  <si>
+    <t>product-26.jpg</t>
+  </si>
+  <si>
+    <t>product-27.jpg</t>
+  </si>
+  <si>
+    <t>product-28.jpg</t>
+  </si>
+  <si>
+    <t>product-29.jpg</t>
+  </si>
+  <si>
+    <t>product-30.jpg</t>
+  </si>
+  <si>
+    <t>product-31.jpg</t>
+  </si>
+  <si>
+    <t>product-32.jpg</t>
+  </si>
+  <si>
+    <t>product-33.jpg</t>
+  </si>
+  <si>
+    <t>product-34.jpg</t>
+  </si>
+  <si>
+    <t>product-35.jpg</t>
+  </si>
+  <si>
+    <t>product-36.jpg</t>
+  </si>
+  <si>
+    <t>неведома зверушка</t>
+  </si>
+  <si>
+    <t>пластиковый косичкой</t>
+  </si>
+  <si>
+    <t>черный офисный</t>
+  </si>
+  <si>
+    <t>дерево под старину</t>
+  </si>
+  <si>
+    <t>синий офисный</t>
+  </si>
+  <si>
+    <t>желтый ущербный</t>
+  </si>
+  <si>
+    <t>оранжевый</t>
+  </si>
+  <si>
+    <t>из прошлого столетия</t>
+  </si>
+  <si>
+    <t>желтый непонятный</t>
+  </si>
+  <si>
+    <t>нестареющпя классика</t>
+  </si>
+  <si>
+    <t>желтый на деревянных ножках</t>
+  </si>
+  <si>
+    <t>прозрачный из оргстекла</t>
+  </si>
+  <si>
+    <t>product-38.jpg</t>
+  </si>
+  <si>
+    <t>product-37.jpg</t>
+  </si>
+  <si>
+    <t>коричневый велюровый</t>
+  </si>
+  <si>
+    <t>неведома зверушка более подробно…</t>
+  </si>
+  <si>
+    <t>пластиковый косичкой более подробно…</t>
+  </si>
+  <si>
+    <t>черный офисный более подробно…</t>
+  </si>
+  <si>
+    <t>дерево под старину более подробно…</t>
+  </si>
+  <si>
+    <t>синий офисный более подробно…</t>
+  </si>
+  <si>
+    <t>желтый ущербный более подробно…</t>
+  </si>
+  <si>
+    <t>оранжевый более подробно…</t>
+  </si>
+  <si>
+    <t>из прошлого столетия более подробно…</t>
+  </si>
+  <si>
+    <t>желтый непонятный более подробно…</t>
+  </si>
+  <si>
+    <t>нестареющпя классика более подробно…</t>
+  </si>
+  <si>
+    <t>желтый на деревянных ножках более подробно…</t>
+  </si>
+  <si>
+    <t>прозрачный из оргстекла более подробно…</t>
+  </si>
+  <si>
+    <t>коричневый велюровый более подробно…</t>
   </si>
 </sst>
 </file>
@@ -576,15 +780,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" customWidth="1"/>
@@ -634,7 +838,7 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>100</v>
@@ -660,7 +864,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>200</v>
@@ -686,7 +890,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>300</v>
@@ -712,7 +916,7 @@
         <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5">
         <v>400</v>
@@ -732,13 +936,13 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <v>500</v>
@@ -755,16 +959,16 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7">
         <v>600</v>
@@ -781,16 +985,16 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8">
         <v>700</v>
@@ -807,16 +1011,16 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9">
         <v>800</v>
@@ -833,16 +1037,16 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10">
         <v>900</v>
@@ -862,13 +1066,13 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G11">
         <v>1000</v>
@@ -888,13 +1092,13 @@
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>1100</v>
@@ -911,16 +1115,16 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13">
         <v>1200</v>
@@ -937,16 +1141,16 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
         <v>55</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14">
         <v>1300</v>
@@ -963,16 +1167,16 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
         <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15">
         <v>1400</v>
@@ -989,16 +1193,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16">
         <v>1500</v>
@@ -1015,71 +1219,71 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="G17">
-        <v>1600</v>
+        <v>15900</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="G18">
-        <v>1700</v>
+        <v>16900</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="G19">
-        <v>1800</v>
+        <v>22000</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -1087,132 +1291,132 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="G20">
-        <v>1900</v>
+        <v>18700</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="G21">
-        <v>2000</v>
+        <v>15300</v>
       </c>
       <c r="H21">
-        <v>43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G22">
-        <v>2100</v>
+        <v>11000</v>
       </c>
       <c r="H22">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="G23">
-        <v>2200</v>
+        <v>29700</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="G24">
-        <v>2300</v>
+        <v>13111</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1223,47 +1427,385 @@
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="G25">
-        <v>2400</v>
+        <v>14000</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26">
+        <v>16000</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26">
-        <v>2500</v>
-      </c>
-      <c r="H26">
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27">
+        <v>1500</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G28">
+        <v>2300</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>133</v>
+      </c>
+      <c r="G29">
+        <v>3500</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30">
+        <v>3700</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31">
+        <v>4000</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32">
+        <v>3450</v>
+      </c>
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33">
+        <v>4500</v>
+      </c>
+      <c r="H33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34">
+        <v>4680</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35">
+        <v>4000</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36">
+        <v>1200</v>
+      </c>
+      <c r="H36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37">
+        <v>1300</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38">
+        <v>1500</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39">
+        <v>1900</v>
+      </c>
+      <c r="H39">
         <v>1</v>
       </c>
     </row>
